--- a/data/trans_dic/P3A$yo-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4137034419731642</v>
+        <v>0.4078333812768594</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6129586000854818</v>
+        <v>0.6121827582153374</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5303266543896076</v>
+        <v>0.5211877941842842</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5776112459253899</v>
+        <v>0.5719535623265614</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7539386955696825</v>
+        <v>0.7468171304750334</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6358969760363137</v>
+        <v>0.6297633005614558</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6568936673576009</v>
+        <v>0.6568936673576011</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.9282333990001176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7960075129122215</v>
+        <v>0.7960075129122216</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5945800070049443</v>
+        <v>0.6035416578746597</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8936762018829805</v>
+        <v>0.9004399285836238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7606378926196337</v>
+        <v>0.7593469168007655</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7095405340721217</v>
+        <v>0.7121657137042571</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9506992675079438</v>
+        <v>0.9538090108432365</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8257195212418127</v>
+        <v>0.8256541726357143</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9704937849833702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8625617772236068</v>
+        <v>0.8625617772236067</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7129435070769995</v>
+        <v>0.7104887426730835</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9581312597235749</v>
+        <v>0.9568882712795587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8420836261609278</v>
+        <v>0.8378393249083881</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7874308343600523</v>
+        <v>0.7851786859391875</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9800581787796102</v>
+        <v>0.9800998114469552</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8818600659225219</v>
+        <v>0.8801805749618231</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7236582860498022</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9733254142833284</v>
+        <v>0.9733254142833283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8515841835118505</v>
+        <v>0.8515841835118507</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6868312196273948</v>
+        <v>0.6895166715940072</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9621156429993137</v>
+        <v>0.9630119685564533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8343540534549657</v>
+        <v>0.832713308521469</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7579998937327339</v>
+        <v>0.7598905469971212</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9820008665336117</v>
+        <v>0.98286496594589</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8703617594353797</v>
+        <v>0.8705978116322851</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6868519075019465</v>
+        <v>0.6868519075019464</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9697629513003423</v>
+        <v>0.9697629513003425</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8282504102698389</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6499848930777268</v>
+        <v>0.6496191472253049</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9576654144555552</v>
+        <v>0.9571282127452969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8092150566350997</v>
+        <v>0.8068047371895128</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7208084299282244</v>
+        <v>0.7195258538190414</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9795526260077375</v>
+        <v>0.9796728664553978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8491319816485101</v>
+        <v>0.8458041814194086</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.6254961527764289</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9426494355641667</v>
+        <v>0.9426494355641666</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.7901957478347116</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5879936739053294</v>
+        <v>0.5808870874982949</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9229347226467559</v>
+        <v>0.9232520487576202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.767871407695326</v>
+        <v>0.7661801919846505</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6638586169878907</v>
+        <v>0.6661276721201231</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9562334182846925</v>
+        <v>0.9562064418644859</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.813885088362166</v>
+        <v>0.8125419057428297</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.4908650822359458</v>
+        <v>0.490865082235946</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7477934574427576</v>
+        <v>0.7477934574427574</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.644930774370758</v>
+        <v>0.6449307743707577</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4450309485676421</v>
+        <v>0.4448494112259994</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7148408437387512</v>
+        <v>0.7190232689662336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6181291514089129</v>
+        <v>0.6156810021869116</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5378190147364894</v>
+        <v>0.5398583875022385</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7762547414785824</v>
+        <v>0.7795674152230313</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6731914870565304</v>
+        <v>0.669529753539704</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.9063669999452783</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>168705</v>
+        <v>166312</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>222205</v>
+        <v>221924</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>408513</v>
+        <v>401474</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>235546</v>
+        <v>233239</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>273312</v>
+        <v>270730</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>489835</v>
+        <v>485110</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>283549</v>
+        <v>287823</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>448387</v>
+        <v>451780</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>744378</v>
+        <v>743114</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>338373</v>
+        <v>339625</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>476997</v>
+        <v>478557</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>808068</v>
+        <v>808004</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>442622</v>
+        <v>441098</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>597101</v>
+        <v>596326</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1047576</v>
+        <v>1042296</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>488866</v>
+        <v>487468</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>610765</v>
+        <v>610791</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1097059</v>
+        <v>1094970</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>481206</v>
+        <v>483087</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>708319</v>
+        <v>708979</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1198822</v>
+        <v>1196465</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>531068</v>
+        <v>532392</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>722959</v>
+        <v>723595</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1250559</v>
+        <v>1250898</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>396066</v>
+        <v>395843</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>583079</v>
+        <v>582752</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>985787</v>
+        <v>982851</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>439222</v>
+        <v>438440</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>596406</v>
+        <v>596479</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1034414</v>
+        <v>1030360</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>238717</v>
+        <v>235832</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>404797</v>
+        <v>404937</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>648532</v>
+        <v>647104</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>269517</v>
+        <v>270439</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>419402</v>
+        <v>419390</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>687394</v>
+        <v>686260</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>138048</v>
+        <v>137991</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>332121</v>
+        <v>334065</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>478931</v>
+        <v>477034</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>166830</v>
+        <v>167463</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>360655</v>
+        <v>362194</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>521593</v>
+        <v>518756</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
     </row>
     <row r="36">
